--- a/Projects 2022/Ethnic Dolmen City Karachi/Variation orders/Verified/Summary of VOs.xlsx
+++ b/Projects 2022/Ethnic Dolmen City Karachi/Variation orders/Verified/Summary of VOs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21656DF5-07A0-42CC-A529-9D54F765B388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A8985-0824-4617-9AE6-0B2278420AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9615" yWindow="6630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -230,7 +230,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -260,8 +260,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -273,19 +273,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,10 +300,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -864,7 +864,7 @@
   <dimension ref="A7:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45178</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
